--- a/modelos/OBACAC4431094/OBACAC4431094_Sell Out_metricas.xlsx
+++ b/modelos/OBACAC4431094/OBACAC4431094_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45006</v>
       </c>
       <c r="B2" t="n">
-        <v>258.7750154169762</v>
+        <v>266.9782084500789</v>
       </c>
       <c r="C2" t="n">
-        <v>203.1552183033337</v>
+        <v>215.6966126733934</v>
       </c>
       <c r="D2" t="n">
-        <v>310.6321252023168</v>
+        <v>317.7949688266733</v>
       </c>
       <c r="E2" t="n">
         <v>302</v>
@@ -496,13 +496,13 @@
         <v>45013</v>
       </c>
       <c r="B3" t="n">
-        <v>270.7668880598034</v>
+        <v>277.8968442171297</v>
       </c>
       <c r="C3" t="n">
-        <v>220.1039324731191</v>
+        <v>222.7230178175917</v>
       </c>
       <c r="D3" t="n">
-        <v>322.6658750253443</v>
+        <v>331.9905921906309</v>
       </c>
       <c r="E3" t="n">
         <v>190</v>
@@ -516,13 +516,13 @@
         <v>45019</v>
       </c>
       <c r="B4" t="n">
-        <v>246.3248077924928</v>
+        <v>242.424818020855</v>
       </c>
       <c r="C4" t="n">
-        <v>197.1282771502661</v>
+        <v>190.1180455374167</v>
       </c>
       <c r="D4" t="n">
-        <v>298.0009615156072</v>
+        <v>293.4694967743266</v>
       </c>
       <c r="E4" t="n">
         <v>319</v>
@@ -536,13 +536,13 @@
         <v>45027</v>
       </c>
       <c r="B5" t="n">
-        <v>267.0920383535446</v>
+        <v>274.7387289259303</v>
       </c>
       <c r="C5" t="n">
-        <v>208.5279766654595</v>
+        <v>219.882887356109</v>
       </c>
       <c r="D5" t="n">
-        <v>323.9881524342417</v>
+        <v>332.143600275449</v>
       </c>
       <c r="E5" t="n">
         <v>246</v>
@@ -556,13 +556,13 @@
         <v>45033</v>
       </c>
       <c r="B6" t="n">
-        <v>261.7602919991199</v>
+        <v>260.773149306116</v>
       </c>
       <c r="C6" t="n">
-        <v>206.4993472465798</v>
+        <v>203.0870375560236</v>
       </c>
       <c r="D6" t="n">
-        <v>317.3412840860317</v>
+        <v>313.4502948510167</v>
       </c>
       <c r="E6" t="n">
         <v>200</v>
@@ -576,13 +576,13 @@
         <v>45040</v>
       </c>
       <c r="B7" t="n">
-        <v>249.7154544968613</v>
+        <v>247.9109093106662</v>
       </c>
       <c r="C7" t="n">
-        <v>193.4968552430825</v>
+        <v>193.5200455580844</v>
       </c>
       <c r="D7" t="n">
-        <v>306.9654095093309</v>
+        <v>298.2410568491294</v>
       </c>
       <c r="E7" t="n">
         <v>165</v>
@@ -657,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2945.521193658286</v>
+        <v>3259.431882324864</v>
       </c>
       <c r="C2" t="n">
-        <v>54.27265604020395</v>
+        <v>57.09143440416315</v>
       </c>
       <c r="D2" t="n">
-        <v>48.36130366545729</v>
+        <v>50.55245489766037</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2179859886185436</v>
+        <v>0.2318017560246432</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1431290880232576</v>
+        <v>0.1168241013249198</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1956509771964743</v>
+        <v>0.203063759500799</v>
       </c>
       <c r="H2" t="n">
         <v>0.6666666666666667</v>
@@ -683,22 +683,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>5424.241820274814</v>
+        <v>5477.117684814717</v>
       </c>
       <c r="C3" t="n">
-        <v>73.64945227409919</v>
+        <v>74.00755153911469</v>
       </c>
       <c r="D3" t="n">
-        <v>73.05031290116278</v>
+        <v>73.41974686530907</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3500167920306883</v>
+        <v>0.348801232800092</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3088014599955997</v>
+        <v>0.3038657465305801</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3110520816875265</v>
+        <v>0.3127228985802264</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>

--- a/modelos/OBACAC4431094/OBACAC4431094_Sell Out_metricas.xlsx
+++ b/modelos/OBACAC4431094/OBACAC4431094_Sell Out_metricas.xlsx
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45006</v>
+        <v>45013</v>
       </c>
       <c r="B2" t="n">
-        <v>266.9782084500789</v>
+        <v>270.7668880599905</v>
       </c>
       <c r="C2" t="n">
-        <v>215.6966126733934</v>
+        <v>225.8197918882039</v>
       </c>
       <c r="D2" t="n">
-        <v>317.7949688266733</v>
+        <v>321.278833340394</v>
       </c>
       <c r="E2" t="n">
-        <v>302</v>
+        <v>190</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45005</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45013</v>
+        <v>45017</v>
       </c>
       <c r="B3" t="n">
-        <v>277.8968442171297</v>
+        <v>258.367540529033</v>
       </c>
       <c r="C3" t="n">
-        <v>222.7230178175917</v>
+        <v>210.8104046043281</v>
       </c>
       <c r="D3" t="n">
-        <v>331.9905921906309</v>
+        <v>312.2307308967642</v>
       </c>
       <c r="E3" t="n">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45012</v>
@@ -516,13 +516,13 @@
         <v>45019</v>
       </c>
       <c r="B4" t="n">
-        <v>242.424818020855</v>
+        <v>246.3248077926842</v>
       </c>
       <c r="C4" t="n">
-        <v>190.1180455374167</v>
+        <v>195.3575977897337</v>
       </c>
       <c r="D4" t="n">
-        <v>293.4694967743266</v>
+        <v>301.9006585656713</v>
       </c>
       <c r="E4" t="n">
         <v>319</v>
@@ -536,13 +536,13 @@
         <v>45027</v>
       </c>
       <c r="B5" t="n">
-        <v>274.7387289259303</v>
+        <v>258.44533460551</v>
       </c>
       <c r="C5" t="n">
-        <v>219.882887356109</v>
+        <v>199.2799436563523</v>
       </c>
       <c r="D5" t="n">
-        <v>332.143600275449</v>
+        <v>316.2534581493139</v>
       </c>
       <c r="E5" t="n">
         <v>246</v>
@@ -556,13 +556,13 @@
         <v>45033</v>
       </c>
       <c r="B6" t="n">
-        <v>260.773149306116</v>
+        <v>249.178080667273</v>
       </c>
       <c r="C6" t="n">
-        <v>203.0870375560236</v>
+        <v>188.8725385091051</v>
       </c>
       <c r="D6" t="n">
-        <v>313.4502948510167</v>
+        <v>304.8565240073327</v>
       </c>
       <c r="E6" t="n">
         <v>200</v>
@@ -576,13 +576,13 @@
         <v>45040</v>
       </c>
       <c r="B7" t="n">
-        <v>247.9109093106662</v>
+        <v>240.1313817444144</v>
       </c>
       <c r="C7" t="n">
-        <v>193.5200455580844</v>
+        <v>183.5874608314388</v>
       </c>
       <c r="D7" t="n">
-        <v>298.2410568491294</v>
+        <v>299.2896623138848</v>
       </c>
       <c r="E7" t="n">
         <v>165</v>
@@ -602,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,51 +657,77 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3259.431882324864</v>
+        <v>3339.088280169074</v>
       </c>
       <c r="C2" t="n">
-        <v>57.09143440416315</v>
+        <v>57.78484472739434</v>
       </c>
       <c r="D2" t="n">
-        <v>50.55245489766037</v>
+        <v>46.60611133275026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2318017560246432</v>
+        <v>0.2378398378027874</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1168241013249198</v>
+        <v>0.2378398378027874</v>
       </c>
       <c r="G2" t="n">
-        <v>0.203063759500799</v>
+        <v>0.1999592850944491</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>5477.117684814717</v>
+        <v>20841.98675840199</v>
       </c>
       <c r="C3" t="n">
-        <v>74.00755153911469</v>
+        <v>144.367540529033</v>
       </c>
       <c r="D3" t="n">
-        <v>73.41974686530907</v>
+        <v>144.367540529033</v>
       </c>
       <c r="E3" t="n">
-        <v>0.348801232800092</v>
+        <v>1.266381934465202</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3038657465305801</v>
+        <v>1.266381934465202</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3127228985802264</v>
+        <v>0.7754034646732419</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4448.297234437345</v>
+      </c>
+      <c r="C4" t="n">
+        <v>66.69555633201769</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.66155153966773</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3096846766744871</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.245890403336365</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2823258505999744</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACAC4431094/OBACAC4431094_Sell Out_metricas.xlsx
+++ b/modelos/OBACAC4431094/OBACAC4431094_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45013</v>
+        <v>45000</v>
       </c>
       <c r="B2" t="n">
-        <v>270.7668880599905</v>
+        <v>263.9392450311399</v>
       </c>
       <c r="C2" t="n">
-        <v>225.8197918882039</v>
+        <v>215.8642627512118</v>
       </c>
       <c r="D2" t="n">
-        <v>321.278833340394</v>
+        <v>309.0205215701898</v>
       </c>
       <c r="E2" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45012</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45017</v>
+        <v>45006</v>
       </c>
       <c r="B3" t="n">
-        <v>258.367540529033</v>
+        <v>261.7363099716911</v>
       </c>
       <c r="C3" t="n">
-        <v>210.8104046043281</v>
+        <v>217.0605498779062</v>
       </c>
       <c r="D3" t="n">
-        <v>312.2307308967642</v>
+        <v>306.3602146890542</v>
       </c>
       <c r="E3" t="n">
-        <v>114</v>
+        <v>302</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45012</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45019</v>
+        <v>45013</v>
       </c>
       <c r="B4" t="n">
-        <v>246.3248077926842</v>
+        <v>274.6290807598607</v>
       </c>
       <c r="C4" t="n">
-        <v>195.3575977897337</v>
+        <v>231.78436330856</v>
       </c>
       <c r="D4" t="n">
-        <v>301.9006585656713</v>
+        <v>323.1879783514048</v>
       </c>
       <c r="E4" t="n">
-        <v>319</v>
+        <v>190</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45012</v>
@@ -533,39 +533,39 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45027</v>
+        <v>45019</v>
       </c>
       <c r="B5" t="n">
-        <v>258.44533460551</v>
+        <v>236.912243806549</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2799436563523</v>
+        <v>186.7017356643337</v>
       </c>
       <c r="D5" t="n">
-        <v>316.2534581493139</v>
+        <v>281.0758461625478</v>
       </c>
       <c r="E5" t="n">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45026</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45033</v>
+        <v>45027</v>
       </c>
       <c r="B6" t="n">
-        <v>249.178080667273</v>
+        <v>271.9526554703081</v>
       </c>
       <c r="C6" t="n">
-        <v>188.8725385091051</v>
+        <v>219.0276239538469</v>
       </c>
       <c r="D6" t="n">
-        <v>304.8565240073327</v>
+        <v>325.9698756141283</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45026</v>
@@ -573,21 +573,41 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B7" t="n">
+        <v>256.3043407221443</v>
+      </c>
+      <c r="C7" t="n">
+        <v>205.8397406932827</v>
+      </c>
+      <c r="D7" t="n">
+        <v>307.5167132914787</v>
+      </c>
+      <c r="E7" t="n">
+        <v>200</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45040</v>
       </c>
-      <c r="B7" t="n">
-        <v>240.1313817444144</v>
-      </c>
-      <c r="C7" t="n">
-        <v>183.5874608314388</v>
-      </c>
-      <c r="D7" t="n">
-        <v>299.2896623138848</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="B8" t="n">
+        <v>244.2155280647534</v>
+      </c>
+      <c r="C8" t="n">
+        <v>197.1722710834394</v>
+      </c>
+      <c r="D8" t="n">
+        <v>294.3214462014906</v>
+      </c>
+      <c r="E8" t="n">
         <v>165</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>45033</v>
       </c>
     </row>
@@ -657,51 +677,51 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3339.088280169074</v>
+        <v>3152.262123638425</v>
       </c>
       <c r="C2" t="n">
-        <v>57.78484472739434</v>
+        <v>56.14500978393738</v>
       </c>
       <c r="D2" t="n">
-        <v>46.60611133275026</v>
+        <v>50.28180875282588</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2378398378027874</v>
+        <v>0.2280794303044366</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2378398378027874</v>
+        <v>0.13332347691493</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1999592850944491</v>
+        <v>0.2024483064387109</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20841.98675840199</v>
+        <v>573.0874526609553</v>
       </c>
       <c r="C3" t="n">
-        <v>144.367540529033</v>
+        <v>23.93924503113988</v>
       </c>
       <c r="D3" t="n">
-        <v>144.367540529033</v>
+        <v>23.93924503113988</v>
       </c>
       <c r="E3" t="n">
-        <v>1.266381934465202</v>
+        <v>0.09974685429641615</v>
       </c>
       <c r="F3" t="n">
-        <v>1.266381934465202</v>
+        <v>0.09974685429641615</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7754034646732419</v>
+        <v>0.09500845694071951</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -709,25 +729,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>4448.297234437345</v>
+        <v>5394.559462536168</v>
       </c>
       <c r="C4" t="n">
-        <v>66.69555633201769</v>
+        <v>73.44766478613305</v>
       </c>
       <c r="D4" t="n">
-        <v>65.66155153966773</v>
+        <v>72.53587499344957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3096846766744871</v>
+        <v>0.3396480674717461</v>
       </c>
       <c r="F4" t="n">
-        <v>0.245890403336365</v>
+        <v>0.2815217036107217</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2823258505999744</v>
+        <v>0.3097561480967702</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3333333333333334</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
